--- a/Lab Info.xlsx
+++ b/Lab Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\KPMG\Python Batch-2 18th june 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2FCA5-C7FC-41E7-B1DD-FB174B48AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FDCF8-8E18-4294-8260-D35E0EFD9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>URL: https://cloud.cdp.rpsconsulting.in/console/#/</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Vermani Kapeesh Raj</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/Kpmg_python_5-Days_18th-june_2024.git</t>
+  </si>
+  <si>
+    <t>Nagarogoje Deepak</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <dimension ref="B3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +564,7 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="68.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -691,6 +697,9 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -828,7 +837,9 @@
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
@@ -917,11 +928,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" location="/" display="https://cloud.cdp.rpsconsulting.in/console/ - /" xr:uid="{C81C2D77-1A6D-4619-B690-D0F0FE6A070B}"/>
+    <hyperlink ref="G3" r:id="rId1" location="/" xr:uid="{C81C2D77-1A6D-4619-B690-D0F0FE6A070B}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{95214A31-8FC0-4192-A870-927F39E5580A}"/>
     <hyperlink ref="D6:D29" r:id="rId3" display="mailto:Rps@12345" xr:uid="{5B91CA0A-FBC6-4E60-B100-F747B04D4D28}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{341949DD-DA8F-4062-9416-D9E1A22DD714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Lab Info.xlsx
+++ b/Lab Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\KPMG\Python Batch-2 18th june 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FDCF8-8E18-4294-8260-D35E0EFD9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB20029-4084-43A5-AF4D-48EFBDC68F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>URL: https://cloud.cdp.rpsconsulting.in/console/#/</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Nagarogoje Deepak</t>
+  </si>
+  <si>
+    <t>Ponnuswamy, Arunkumar</t>
+  </si>
+  <si>
+    <t>Agrawal, Vishal</t>
+  </si>
+  <si>
+    <t>Shashank Bawne</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
   <dimension ref="B3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +860,9 @@
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
@@ -863,7 +874,9 @@
       <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
@@ -875,7 +888,9 @@
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
